--- a/paper/fse21/img/table1.xlsx
+++ b/paper/fse21/img/table1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundongjun/PLRG/safe/paper/fse21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA28AD9-B7D7-E04E-8EB1-245E30D016DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82EE25-7F6E-DA48-8584-0E3F387C8398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" xr2:uid="{F47650FE-02FA-3E43-9424-0C61136D6DE4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{F47650FE-02FA-3E43-9424-0C61136D6DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="conc" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
             <v>0</v>
           </cell>
           <cell r="H9">
-            <v>60</v>
+            <v>61</v>
           </cell>
           <cell r="I9">
             <v>0</v>
@@ -824,13 +824,13 @@
             <v>2</v>
           </cell>
           <cell r="H31">
-            <v>83</v>
+            <v>82</v>
           </cell>
           <cell r="I31">
             <v>0</v>
           </cell>
           <cell r="J31">
-            <v>110</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="32">
@@ -2411,13 +2411,13 @@
             <v>2</v>
           </cell>
           <cell r="H100">
-            <v>134</v>
+            <v>133</v>
           </cell>
           <cell r="I100">
             <v>0</v>
           </cell>
           <cell r="J100">
-            <v>59</v>
+            <v>60</v>
           </cell>
         </row>
         <row r="101">
@@ -2670,7 +2670,7 @@
             <v>1</v>
           </cell>
           <cell r="J111">
-            <v>27</v>
+            <v>28</v>
           </cell>
         </row>
         <row r="112">
@@ -4231,7 +4231,7 @@
             <v>0</v>
           </cell>
           <cell r="I179">
-            <v>27</v>
+            <v>28</v>
           </cell>
           <cell r="J179">
             <v>0</v>
@@ -4642,13 +4642,13 @@
             <v>1</v>
           </cell>
           <cell r="H197">
-            <v>139</v>
+            <v>138</v>
           </cell>
           <cell r="I197">
             <v>0</v>
           </cell>
           <cell r="J197">
-            <v>54</v>
+            <v>55</v>
           </cell>
         </row>
         <row r="198">
@@ -5787,7 +5787,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M137" sqref="M137"/>
     </sheetView>
   </sheetViews>
@@ -11858,8 +11858,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J139" sqref="J139"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B8">
         <f>[1]builtins!H9</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8">
         <f>[1]builtins!I9</f>
@@ -12092,7 +12092,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
@@ -12658,7 +12658,7 @@
       </c>
       <c r="B30">
         <f>[1]builtins!H31</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <f>[1]builtins!I31</f>
@@ -12666,7 +12666,7 @@
       </c>
       <c r="D30">
         <f>[1]builtins!J31</f>
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
@@ -14452,7 +14452,7 @@
       </c>
       <c r="B99">
         <f>[1]builtins!H100</f>
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C99">
         <f>[1]builtins!I100</f>
@@ -14460,7 +14460,7 @@
       </c>
       <c r="D99">
         <f>[1]builtins!J100</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E99">
         <f t="shared" si="2"/>
@@ -14746,11 +14746,11 @@
       </c>
       <c r="D110">
         <f>[1]builtins!J111</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E110">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" t="str">
         <f t="shared" si="3"/>
@@ -16510,7 +16510,7 @@
       </c>
       <c r="C178">
         <f>[1]builtins!I179</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D178">
         <f>[1]builtins!J179</f>
@@ -16518,7 +16518,7 @@
       </c>
       <c r="E178">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F178" t="str">
         <f t="shared" si="5"/>
@@ -16974,7 +16974,7 @@
       </c>
       <c r="B196">
         <f>[1]builtins!H197</f>
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C196">
         <f>[1]builtins!I197</f>
@@ -16982,7 +16982,7 @@
       </c>
       <c r="D196">
         <f>[1]builtins!J197</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E196">
         <f t="shared" si="6"/>
@@ -17945,14 +17945,15 @@
         <filter val="2"/>
         <filter val="20"/>
         <filter val="21"/>
-        <filter val="27"/>
+        <filter val="28"/>
         <filter val="35"/>
         <filter val="37"/>
         <filter val="39"/>
+        <filter val="40"/>
         <filter val="44"/>
         <filter val="47"/>
         <filter val="6"/>
-        <filter val="65"/>
+        <filter val="66"/>
         <filter val="7"/>
         <filter val="8"/>
       </filters>

--- a/paper/fse21/img/table1.xlsx
+++ b/paper/fse21/img/table1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yundongjun/PLRG/safe/paper/fse21/img/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F82EE25-7F6E-DA48-8584-0E3F387C8398}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439622D-4F68-CF48-B056-249410355C9A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20340" activeTab="1" xr2:uid="{F47650FE-02FA-3E43-9424-0C61136D6DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="conc" sheetId="1" r:id="rId1"/>
     <sheet name="abs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abs!$A$1:$F$232</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,9 +63,6 @@
     <t>JSON.stringify</t>
   </si>
   <si>
-    <t>String.fromCharCode</t>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,6 +84,208 @@
   </si>
   <si>
     <t>new Object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>console.log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {Array    }  {203 / 203}{ 90 / 116} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {String     }  { 20 /  20}{  9 /  10} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {Object        }  {263 / 263}{151 / 167} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {new Array}  {  0 /   0}{  0 /  10} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {toString   }  {  0 /   0}{  0 /  33} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {isArray  }  {263 / 263}{144 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {valueOf    }  {  0 /   0}{  0 /  12} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {getPrototypeOf}  { 56 /  56}{ 24 /  29} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {concat   }  {263 / 263}{163 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutt{1}{}             {charAt     }  {  7 /   7}{  5 /   5} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {create        }  {263 / 263}{164 / 167} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {join     }  {263 / 263}{166 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {charCodeAt }  { 15 /  15}{  3 /   4} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{Object} {defineProperty}  {263 / 263}{160 / 167} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {pop      }  { 25 /  25}{  9 /  13} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutt{1}{}             {indexOf    }  {  2 /   2}{  1 /   1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysbtt{1}{}       {freeze        }  {  1 /   1}{  1 /   1} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{2}{Array}     {push     }  {263 / 263}{150 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{String}       {match      }  { 25 /  25}{ 11 /  13} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {keys          }  {263 / 263}{161 / 167} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutt{1}{}          {reverse  }  { 10 /  10}{  3 /   3} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {replace    }  { 55 /  55}{ 19 /  26} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {toString      }  {263 / 263}{129 / 167} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {shift    }  {  2 /   2}{  0 /   1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {slice      }  {263 / 263}{165 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {hasOwnProperty}  {263 / 263}{161 / 167} \mylinefft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {slice    }  {263 / 263}{164 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {split      }  {  5 /   5}{  0 /   1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {parseInt}        {  1 /   1}{  0 /   1} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {sort     }  { 69 /  69}{ 26 /  28} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {substring  }  {214 / 214}{ 91 / 121} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{Global} {isNaN   }        { 15 /  15}{  9 /  25} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {splice   }  { 25 /  25}{  6 /  11} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {toLowerCase}  {214 / 214}{ 90 / 121} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysbtt{1}{}       {isFinite}        {  3 /   3}{  1 /   1} \mylinefft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutt{1}{}          {unshift  }  {  2 /   2}{  1 /   1} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {toUpperCase}  { 10 /  10}{  4 /   6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysbtt{1}{}       {RegExp    }      {263 / 263}{167 / 167} \mylineftf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {indexOf  }  { 94 /  94}{ 22 /  47} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutt{2}{Boolean}      {Boolean}      {  3 /   3}{  2 /   2} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{2}{RegExp} {new RegExp}      {  0 /   0}{  0 /   1} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {every    }  { 92 /  92}{ 23 /  32} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {valueOf}      {  0 /   0}{  0 /   6} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysbtt{1}{}       {exec      }      {263 / 263}{167 / 167} \mylinettf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutt{1}{}          {ceil }      { 36 /  36}{  8 /   8} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{2}{Number}       {Number }      {  2 /   2}{  1 /   2} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {test      }      {263 / 263}{158 / 167} \mylinefft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysuff{1}{}          {floor}      { 16 /  17}{  4 /   5} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {valueOf}      {  0 /   0}{  0 /  16} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{Math}      {max  }      {263 / 263}{134 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutt{1}{}             {toString}     {263 / 263}{167 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutf{1}{}          {min  }      { 64 /  64}{ 15 /  48} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mnsutf{1}{Function}     {apply   }     {263 / 263}{124 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {new RangeError}  {  0 /   0}{  0 /   3} \mylinefff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutt{1}{}          {pow  }      { 11 /  11}{  5 /   5} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysuff{1}{}             {call    }     {262 / 263}{ 50 / 167} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {new TypeError }  {  0 /   0}{  0 /   9}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      \mysutt{1}{}          {round}      { 11 /  11}{  5 /   5} </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{2}{Error}  {Error     }  {  0 /   0}{  0 /   8} \mylinefff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}       {print}        {  1 /   1}{  0 /   1} \mylinefff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{2}{JSON}  {stringify     }  {  0 /   0}{  0 /   8} \mylinefff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{2}{Date}  {new Date     }  {  0 /   0}{  0 /   8} \mylinefff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String.fromCharCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> \mysutf{1}{}             {fromCharCode}  { 10 /  10}{  4 /   6} </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5480,8 +5680,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5787,11 +5987,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M137" sqref="M137"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
@@ -11856,15 +12060,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B47EFE-4F7C-9341-9C1F-6E20B77437E0}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="3" max="4" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -11887,10 +12092,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11919,10 +12124,10 @@
         <v/>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11951,7 +12156,7 @@
         <v/>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>6</v>
@@ -11983,10 +12188,10 @@
         <v/>
       </c>
       <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -12015,10 +12220,10 @@
         <v/>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" hidden="1">
@@ -12099,10 +12304,10 @@
         <v/>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -12130,6 +12335,12 @@
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:9" hidden="1">
       <c r="A10" t="str">
@@ -13925,7 +14136,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" t="str">
         <f>[1]builtins!B80</f>
         <v>DefaultValue</v>
@@ -17825,7 +18036,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" hidden="1">
       <c r="A229" t="str">
         <f>[1]builtins!B230</f>
         <v>ToPrimitive</v>
@@ -17851,7 +18062,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" hidden="1">
       <c r="A230" t="str">
         <f>[1]builtins!B231</f>
         <v>ToString</v>
@@ -17929,8 +18140,81 @@
         <v/>
       </c>
     </row>
+    <row r="233" spans="1:6">
+      <c r="F233">
+        <f>COUNTIF(F2:F226,"=Y")</f>
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F232" xr:uid="{083A7648-3065-B043-9921-00516709C346}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Array"/>
+        <filter val="Array.isArray"/>
+        <filter val="Array.prototype.concat"/>
+        <filter val="Array.prototype.every"/>
+        <filter val="Array.prototype.indexOf"/>
+        <filter val="Array.prototype.join"/>
+        <filter val="Array.prototype.pop"/>
+        <filter val="Array.prototype.push"/>
+        <filter val="Array.prototype.reverse"/>
+        <filter val="Array.prototype.shift"/>
+        <filter val="Array.prototype.slice"/>
+        <filter val="Array.prototype.sort"/>
+        <filter val="Array.prototype.splice"/>
+        <filter val="Array.prototype.unshift"/>
+        <filter val="Boolean"/>
+        <filter val="Boolean.prototype.valueOf"/>
+        <filter val="console.log"/>
+        <filter val="Error"/>
+        <filter val="Function.prototype.apply"/>
+        <filter val="Function.prototype.call"/>
+        <filter val="Function.prototype.toString"/>
+        <filter val="Global.isFinite"/>
+        <filter val="Global.isNaN"/>
+        <filter val="Global.parseInt"/>
+        <filter val="JSON.stringify"/>
+        <filter val="Math.ceil"/>
+        <filter val="Math.floor"/>
+        <filter val="Math.max"/>
+        <filter val="Math.min"/>
+        <filter val="Math.pow"/>
+        <filter val="Math.round"/>
+        <filter val="new Array"/>
+        <filter val="new Date"/>
+        <filter val="new RangeError"/>
+        <filter val="new RegExp"/>
+        <filter val="new TypeError"/>
+        <filter val="Number"/>
+        <filter val="Number.prototype.valueOf"/>
+        <filter val="Object"/>
+        <filter val="Object.create"/>
+        <filter val="Object.defineProperty"/>
+        <filter val="Object.freeze"/>
+        <filter val="Object.getPrototypeOf"/>
+        <filter val="Object.keys"/>
+        <filter val="Object.prototype.hasOwnProperty"/>
+        <filter val="Object.prototype.toString"/>
+        <filter val="RegExp"/>
+        <filter val="RegExp.prototype.exec"/>
+        <filter val="RegExp.prototype.test"/>
+        <filter val="String"/>
+        <filter val="String.fromCharCode"/>
+        <filter val="String.prototype.charAt"/>
+        <filter val="String.prototype.charCodeAt"/>
+        <filter val="String.prototype.indexOf"/>
+        <filter val="String.prototype.match"/>
+        <filter val="String.prototype.replace"/>
+        <filter val="String.prototype.slice"/>
+        <filter val="String.prototype.split"/>
+        <filter val="String.prototype.substring"/>
+        <filter val="String.prototype.toLowerCase"/>
+        <filter val="String.prototype.toString"/>
+        <filter val="String.prototype.toUpperCase"/>
+        <filter val="String.prototype.valueOf"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="1"/>
@@ -17962,4 +18246,256 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D9F09-F917-BB47-B9F5-BCF3A18825D9}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>